--- a/server/data/coa/QBO-Coa.xlsx
+++ b/server/data/coa/QBO-Coa.xlsx
@@ -1,48 +1,655 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
+  </bookViews>
   <sheets>
-    <sheet name="ModifiedSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Account List" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Account List'!$A$1:$F$151</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="202">
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Detail type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>CAJA</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Checking</t>
+  </si>
+  <si>
+    <t>CAJA:Caja General</t>
+  </si>
+  <si>
+    <t>CAJA:Caja Chica</t>
+  </si>
+  <si>
+    <t>BANCOS</t>
+  </si>
+  <si>
+    <t>BANCOS:(CERRADO)Cta. Cheq. 11-302-001083-2</t>
+  </si>
+  <si>
+    <t>BANCOS:(CERRADO)Cta. Cheq. 11-302-001077-8</t>
+  </si>
+  <si>
+    <t>BANCOS:(CERRADO)Cta. Cheq. 11-302-001084-0</t>
+  </si>
+  <si>
+    <t>BANCOS:(CERRADO)Cta. Ahorro 21-302-021225-3</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>BANCOS:(CERRADO)Cta. Ahorro 21-302-021274-1</t>
+  </si>
+  <si>
+    <t>BANCOS:(CERRADO)Cta. Ahorro USD 22-302-000859-9</t>
+  </si>
+  <si>
+    <t>BANCOS:Cta.Gastos Operat-21-302-0332470</t>
+  </si>
+  <si>
+    <t>Gastos Operativos</t>
+  </si>
+  <si>
+    <t>BANCOS:Cta.Otros Ingresos-21-302-0332488</t>
+  </si>
+  <si>
+    <t>Otros Ingresos</t>
+  </si>
+  <si>
+    <t>BANCOS:Cta.BeneficiosLab-21-302-0332496</t>
+  </si>
+  <si>
+    <t>Beneficios Laborales</t>
+  </si>
+  <si>
+    <t>BANCOS:Cta.Transf-USD-22-302-0013169</t>
+  </si>
+  <si>
+    <t>Transferencias de EOS en USD</t>
+  </si>
+  <si>
+    <t>BANCOS:Cta. Ahorro-USFS 21-302-039430-0</t>
+  </si>
+  <si>
+    <t>CUENTAS POR COBRAR</t>
+  </si>
+  <si>
+    <t>Accounts receivable (A/R)</t>
+  </si>
+  <si>
+    <t>Accounts Receivable (A/R)</t>
+  </si>
+  <si>
+    <t>CUENTAS POR COBRAR:Cuentas Incobrales</t>
+  </si>
+  <si>
+    <t>ANTICIPOS</t>
+  </si>
+  <si>
+    <t>Other Current Assets</t>
+  </si>
+  <si>
+    <t>ANTICIPOS:Anticipos</t>
+  </si>
+  <si>
+    <t>ANTICIPOS:Impuestos sobre la Renta (Pago a la cuenta)</t>
+  </si>
+  <si>
+    <t>Prepaid Expenses</t>
+  </si>
+  <si>
+    <t>Pago a ls cuenta</t>
+  </si>
+  <si>
+    <t>ANTICIPOS:Impuestos sobre Ventas (Pagado)</t>
+  </si>
+  <si>
+    <t>INVENTARIO</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>INVENTARIO:Inventario - Analsis de Agua</t>
+  </si>
+  <si>
+    <t>INVENTARIO:Inventario  - Cloro Tabletas</t>
+  </si>
+  <si>
+    <t>INVENTARIO:Inventario - Cloro Granulado (en libras)</t>
+  </si>
+  <si>
+    <t>INVENTARIO:Inventario - Cloradores</t>
+  </si>
+  <si>
+    <t>INVENTARIO:Inventario - Fitros</t>
+  </si>
+  <si>
+    <t>INVENTARIO:Inventario - Reactivos y Kit Cloro</t>
+  </si>
+  <si>
+    <t>INVENTARIO:Inventario - Accesorios y Otras</t>
+  </si>
+  <si>
+    <t>OTROS ACTIVOS CIRCULANTES</t>
+  </si>
+  <si>
+    <t>Prestamos a Empleados</t>
+  </si>
+  <si>
+    <t>Deodores Varios</t>
+  </si>
+  <si>
+    <t>OTROS ACTIVOS CIRCULANTES:Prestamo EOS</t>
+  </si>
+  <si>
+    <t>Loans to Others</t>
+  </si>
+  <si>
+    <t>Prestamo Motocicleta</t>
+  </si>
+  <si>
+    <t>Uncategorized Asset (Activo sin categorizado)</t>
+  </si>
+  <si>
+    <t>Undeposited Funds</t>
+  </si>
+  <si>
+    <t>Inventory Asset</t>
+  </si>
+  <si>
+    <t>MOBILIARIO Y EQUIPO</t>
+  </si>
+  <si>
+    <t>Fixed Assets</t>
+  </si>
+  <si>
+    <t>Other fixed assets</t>
+  </si>
+  <si>
+    <t>Vehicilos y Motos</t>
+  </si>
+  <si>
+    <t>Mobiliario y Equipo de Oficina</t>
+  </si>
+  <si>
+    <t>Equipo de Laboratorio</t>
+  </si>
+  <si>
+    <t>DEPRECIACION ACUMULADA</t>
+  </si>
+  <si>
+    <t>Accumulated Depreciation</t>
+  </si>
+  <si>
+    <t>Depreciación Vehicilos y Motos</t>
+  </si>
+  <si>
+    <t>Depreciación Mobiliario y Equipo de Oficina</t>
+  </si>
+  <si>
+    <t>Depreciación Equipo de Laboratorio</t>
+  </si>
+  <si>
+    <t>Cuentas por Pagar</t>
+  </si>
+  <si>
+    <t>Accounts payable (A/P)</t>
+  </si>
+  <si>
+    <t>Accounts Payable (A/P)</t>
+  </si>
+  <si>
+    <t>ACREEDORES DIVERSOS</t>
+  </si>
+  <si>
+    <t>Other Current Liabilities</t>
+  </si>
+  <si>
+    <t>RETENCIONES POR PAGAR</t>
+  </si>
+  <si>
+    <t>RETENCIONES POR PAGAR:Benef. y Prest. Lab. de Empleados</t>
+  </si>
+  <si>
+    <t>RETENCIONES POR PAGAR:Fondos por Ejecutar</t>
+  </si>
+  <si>
+    <t>RETENCIONES POR PAGAR:Transferencias no Ejecutadas</t>
+  </si>
+  <si>
+    <t>RETENCIONES POR PAGAR:Seguros por Pagar</t>
+  </si>
+  <si>
+    <t>PATRIMONIO</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Owner's Equity</t>
+  </si>
+  <si>
+    <t>Donaciones de Equipos</t>
+  </si>
+  <si>
+    <t>Periodos Anteriores</t>
+  </si>
+  <si>
+    <t>Retained Earnings</t>
+  </si>
+  <si>
+    <t>Presente Periodo</t>
+  </si>
+  <si>
+    <t>Donaciones Recibidas</t>
+  </si>
+  <si>
+    <t>Accumulated Adjustment</t>
+  </si>
+  <si>
+    <t>Opening Balance Equity (Equilibrio de apertura)</t>
+  </si>
+  <si>
+    <t>Opening Balance Equity</t>
+  </si>
+  <si>
+    <t>Services (Servicos)</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Service/Fee Income</t>
+  </si>
+  <si>
+    <t>Uncategorized Income (Ingresos no categorizados)</t>
+  </si>
+  <si>
+    <t>Billable Expense Income</t>
+  </si>
+  <si>
+    <t>Sales of Product Income</t>
+  </si>
+  <si>
+    <t>Unapplied Cash Payment Income</t>
+  </si>
+  <si>
+    <t>Discounts given</t>
+  </si>
+  <si>
+    <t>Discounts/Refunds Given</t>
+  </si>
+  <si>
+    <t>Shipping Income</t>
+  </si>
+  <si>
+    <t>INGRESOS DEL PROGRAMA</t>
+  </si>
+  <si>
+    <t>Fondos p/Ejecucion Proyectos</t>
+  </si>
+  <si>
+    <t>Fondos p/Asistencia Tecnica y Capac.</t>
+  </si>
+  <si>
+    <t>Fondos p/Presupuesto Aprobado</t>
+  </si>
+  <si>
+    <t>Servicios - Asistencia Tecnica</t>
+  </si>
+  <si>
+    <t>Venta - Analsis de Agua</t>
+  </si>
+  <si>
+    <t>Venta - Cloro Tabletas</t>
+  </si>
+  <si>
+    <t>Venta - Cloro Granulado (en libras)</t>
+  </si>
+  <si>
+    <t>Venta - Cloradores</t>
+  </si>
+  <si>
+    <t>Venta - Fitros</t>
+  </si>
+  <si>
+    <t>Venta - Reactivos</t>
+  </si>
+  <si>
+    <t>Venta - Kit Cloro</t>
+  </si>
+  <si>
+    <t>Venta - Accesorios y Otras Ingresos</t>
+  </si>
+  <si>
+    <t>Fondos p/Interes de Prestamos</t>
+  </si>
+  <si>
+    <t>Fondos p/Interes de cuentas Bancarias</t>
+  </si>
+  <si>
+    <t>Fondos Misceláneos</t>
+  </si>
+  <si>
+    <t>Other Primary Income</t>
+  </si>
+  <si>
+    <t>INGRESOS DEL PROGRAMA:Ajuste por mantenimiento y Valor</t>
+  </si>
+  <si>
+    <t>Ajuste mantenimiento cuenta de Dólar</t>
+  </si>
+  <si>
+    <t>Cost of Goods Sold</t>
+  </si>
+  <si>
+    <t>Supplies &amp; Materials - COGS</t>
+  </si>
+  <si>
+    <t>Insumos Analsis de Agua</t>
+  </si>
+  <si>
+    <t>Cost of labor - COS</t>
+  </si>
+  <si>
+    <t>Insumos Cloro Tabletas</t>
+  </si>
+  <si>
+    <t>Insumos Cloro Granulado (en libras)</t>
+  </si>
+  <si>
+    <t>Insumos Cloradores</t>
+  </si>
+  <si>
+    <t>Insumos Fitros</t>
+  </si>
+  <si>
+    <t>Insumos Reactivos</t>
+  </si>
+  <si>
+    <t>Insumos Accesorio y Otros</t>
+  </si>
+  <si>
+    <t>Insumos Accesorios y Otras</t>
+  </si>
+  <si>
+    <t>Uncategorized Expense(Gastos no categorizados)</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Other Miscellaneous Service Cost</t>
+  </si>
+  <si>
+    <t>Purchases</t>
+  </si>
+  <si>
+    <t>Supplies &amp; Materials</t>
+  </si>
+  <si>
+    <t>Unapplied Cash Bill Payment Expense</t>
+  </si>
+  <si>
+    <t>SUELDOS Y SALARIOS</t>
+  </si>
+  <si>
+    <t>Payroll Expenses</t>
+  </si>
+  <si>
+    <t>Coordinacion</t>
+  </si>
+  <si>
+    <t>Contabilidad/Admin</t>
+  </si>
+  <si>
+    <t>Circuit Riders</t>
+  </si>
+  <si>
+    <t>Tecnicos de Carbono</t>
+  </si>
+  <si>
+    <t>Laboratorio y Salud</t>
+  </si>
+  <si>
+    <t>Honorarios Prof/Contratista</t>
+  </si>
+  <si>
+    <t>Bonus Empleados</t>
+  </si>
+  <si>
+    <t>Pago Terceavo Mes</t>
+  </si>
+  <si>
+    <t>Pago Catorceavo Mes</t>
+  </si>
+  <si>
+    <t>Cotizacion al I.H.S.S.</t>
+  </si>
+  <si>
+    <t>Seguro de Vida Empleados</t>
+  </si>
+  <si>
+    <t>Proyeccion Social</t>
+  </si>
+  <si>
+    <t>Prestaciones Liquidades</t>
+  </si>
+  <si>
+    <t>GASTOS DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>Gastos para Ejecusion de Proyectos</t>
+  </si>
+  <si>
+    <t>Programa de Salud e Higiene</t>
+  </si>
+  <si>
+    <t>Advertising/Promotional</t>
+  </si>
+  <si>
+    <t>GASTOS DEL OFICINA</t>
+  </si>
+  <si>
+    <t>Office/General Administrative Expenses</t>
+  </si>
+  <si>
+    <t>Aquiliar de Local</t>
+  </si>
+  <si>
+    <t>Mantienmento de Equipo de Oficina</t>
+  </si>
+  <si>
+    <t>Impuestos Sobre la Renta</t>
+  </si>
+  <si>
+    <t>Papeleria y Utiles de Oficina</t>
+  </si>
+  <si>
+    <t>Servicios Publicos</t>
+  </si>
+  <si>
+    <t>Propaganda y Publicidad</t>
+  </si>
+  <si>
+    <t>Pagina Web</t>
+  </si>
+  <si>
+    <t>Otros Gastos</t>
+  </si>
+  <si>
+    <t>GASTOS DE TRANSPORTE</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Gastos por Transporte</t>
+  </si>
+  <si>
+    <t>Repuestos y Mantienmento de Vehicilos</t>
+  </si>
+  <si>
+    <t>Gastos de Viajes</t>
+  </si>
+  <si>
+    <t>Gastos de Capacitiacion</t>
+  </si>
+  <si>
+    <t>Combustibles y Lubricantes</t>
+  </si>
+  <si>
+    <t>Matricula de Vehiculos</t>
+  </si>
+  <si>
+    <t>Gastos de Viaticos</t>
+  </si>
+  <si>
+    <t>Other Business Expenses</t>
+  </si>
+  <si>
+    <t>Gastos de viaticos, alimentación, etc.</t>
+  </si>
+  <si>
+    <t>Alquiler de Motocicleta</t>
+  </si>
+  <si>
+    <t>GASTOS BANCARIO</t>
+  </si>
+  <si>
+    <t>Bank Charges</t>
+  </si>
+  <si>
+    <t>Depreciaciones</t>
+  </si>
+  <si>
+    <t>Cargo por Chequera</t>
+  </si>
+  <si>
+    <t>Tasa de Seguridad</t>
+  </si>
+  <si>
+    <t>Comision Bancaria</t>
+  </si>
+  <si>
+    <t>Perdida por cuentas incobrables</t>
+  </si>
+  <si>
+    <t>Bad Debts</t>
+  </si>
+  <si>
+    <t>Gasto Diferencial Cambiario</t>
+  </si>
+  <si>
+    <t>Ajuste Tasa de Cambio</t>
+  </si>
+  <si>
+    <t>Reservas</t>
+  </si>
+  <si>
+    <t>Cost of Labor</t>
+  </si>
+  <si>
+    <t>Fondos de reservas de años siguientes</t>
+  </si>
+  <si>
+    <t>Reservas:Reservas</t>
+  </si>
+  <si>
+    <t>SERVICIO FORESTAL (CUENTA PRINCIPAL)</t>
+  </si>
+  <si>
+    <t>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Equipo</t>
+  </si>
+  <si>
+    <t>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Suministros</t>
+  </si>
+  <si>
+    <t>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Contractual</t>
+  </si>
+  <si>
+    <t>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Otro</t>
+  </si>
+  <si>
+    <t>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Personal</t>
+  </si>
+  <si>
+    <t>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Costos Indirectos</t>
+  </si>
+  <si>
+    <t>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Transporte</t>
+  </si>
+  <si>
+    <t>Other Miscellaneous Expense</t>
+  </si>
+  <si>
+    <t>Other Expense</t>
+  </si>
+  <si>
+    <t>Reconciliation Discrepancies</t>
+  </si>
+  <si>
+    <t>Account No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,7 +660,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -61,18 +668,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -221,16 +859,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -352,59 +994,2550 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
-  <sheetData/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A3104"/>
-  </ignoredErrors>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="5" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2">
+        <v>8350.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>100.01</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2">
+        <v>3350.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>100.02</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2">
+        <v>3714883.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>101.01</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>101.02</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>101.03</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>101.04</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>101.05</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>101.06</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>101.07</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2">
+        <v>393203.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>101.08</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1401225.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>101.09</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2">
+        <v>533530.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>101.1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="2">
+        <v>744968.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>101.11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2">
+        <v>641956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>103.01</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>103.02</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>102</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2">
+        <v>69261.88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>102.01</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>102.02</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>102.03</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2">
+        <v>68261.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>104</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2">
+        <v>5038741.37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>104.01</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>104.02</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2">
+        <v>4935944.3499999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>104.03</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>104.04</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2">
+        <v>72981.63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>104.05</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2">
+        <v>25300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>104.06</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>104.07</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2">
+        <v>3165.39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>105</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>105.01</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>105.02</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2">
+        <v>292.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>105.03</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>3004</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>3011</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>8965</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>120</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>120.01</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2">
+        <v>1760495.52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>120.02</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="2">
+        <v>229749.06</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>120.03</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="2">
+        <v>48359.67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>121</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>121.01</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="2">
+        <v>-818861.52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>121.02</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="2">
+        <v>-214696.74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>121.03</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="2">
+        <v>-40134.97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>3012</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>200</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>201</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="2">
+        <v>-62863.11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>201.01</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="2">
+        <v>-62863.11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>201.02</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>201.03</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>201.04</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>300</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>300.01</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="2">
+        <v>-738821.95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>300.02</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>300.02999999999997</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>300.04000000000002</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>3005</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2">
+        <v>-20180.91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>3001</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>3002</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>3006</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>3007</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>3008</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>3014</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>3015</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>400</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>400.01</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>400.02</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>400.03</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>400.04</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>400.05</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>400.06</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>400.07</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>400.08</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>400.09</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>400.1</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>400.11</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>400.12</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>400.13</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>400.14</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>400.15</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>400.16</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>500</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>500.01</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>500.02</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>500.03</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>500.04</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>500.05</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>500.06</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>500.07</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>500.08</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>3003</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>3009</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>3013</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>600</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>600.01</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>600.02</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>600.03</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>600.03099999999995</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>600.04</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>600.04999999999995</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>600.05999999999995</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>600.07000000000005</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>600.08000000000004</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>600.09</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>600.1</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>600.11</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>600.12</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>610</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>610.01</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>610.02</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>620</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>620.01</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>620.02</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>620.03</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>620.04</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>620.04999999999995</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>620.05999999999995</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>620.07000000000005</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>620.08000000000004</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>630</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>630.01</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>630.02</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>630.03</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>630.04</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>630.04999999999995</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>630.05999999999995</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>630.07000000000005</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>630.08000000000004</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>640</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>640.01</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>640.02</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>640.03</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>640.04</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>640.04999999999995</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>640.05999999999995</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>650</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>650.01</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>660</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>660.01</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>660.02</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>660.03</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>660.04</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>660.05</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>660.06</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>660.07</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>3010</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>3016</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F151"/>
+  <mergeCells count="1">
+    <mergeCell ref="A151:F151"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/server/data/coa/QBO-Coa.xlsx
+++ b/server/data/coa/QBO-Coa.xlsx
@@ -1,58 +1,926 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+  </bookViews>
   <sheets>
-    <sheet name="ModifiedSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="COA" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="194">
+  <si>
+    <t>Account No.</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Detail type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Australia and New Zealand Banking Group - ANZ (AU)</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents:Cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Perm Staff Leave</t>
+  </si>
+  <si>
+    <t>Perm Staff Tax</t>
+  </si>
+  <si>
+    <t>Parramatta Council Bill</t>
+  </si>
+  <si>
+    <t>Cumberland Councill Bill</t>
+  </si>
+  <si>
+    <t>petty cash account</t>
+  </si>
+  <si>
+    <t>Petty Cash</t>
+  </si>
+  <si>
+    <t>Personal Savings Account</t>
+  </si>
+  <si>
+    <t>KIA Cerrato expenses</t>
+  </si>
+  <si>
+    <t>BSS Savings Account</t>
+  </si>
+  <si>
+    <t>precision super payments</t>
+  </si>
+  <si>
+    <t>staff super payments</t>
+  </si>
+  <si>
+    <t>Learning &amp; Development</t>
+  </si>
+  <si>
+    <t>Saengdara SMSF</t>
+  </si>
+  <si>
+    <t>Accounts Receivable (A/R)</t>
+  </si>
+  <si>
+    <t>Accounts receivable (A/R)</t>
+  </si>
+  <si>
+    <t>Uncategorised Asset</t>
+  </si>
+  <si>
+    <t>Current assets</t>
+  </si>
+  <si>
+    <t>Other current assets</t>
+  </si>
+  <si>
+    <t>Undeposited funds</t>
+  </si>
+  <si>
+    <t>Undeposited Funds</t>
+  </si>
+  <si>
+    <t>Money from the business not yet deposited into a business bank account</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Inventory Asset</t>
+  </si>
+  <si>
+    <t>Motor vehicles at cost</t>
+  </si>
+  <si>
+    <t>Fixed assets</t>
+  </si>
+  <si>
+    <t>Vehicles</t>
+  </si>
+  <si>
+    <t>Cost of purchasing or leasing motor vehicles for business purposes</t>
+  </si>
+  <si>
+    <t>Office furniture and equipment at cost</t>
+  </si>
+  <si>
+    <t>Other fixed assets</t>
+  </si>
+  <si>
+    <t>Cost of buying or leasing furniture and equipment</t>
+  </si>
+  <si>
+    <t>Accounts Payable (A/P)</t>
+  </si>
+  <si>
+    <t>Accounts payable (A/P)</t>
+  </si>
+  <si>
+    <t>Workwear/Uniform</t>
+  </si>
+  <si>
+    <t>Credit card</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Car Expense - VW</t>
+  </si>
+  <si>
+    <t>Credit Card Bankwest</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>ANZ Credit Card</t>
+  </si>
+  <si>
+    <t>Citibank Credit Card</t>
+  </si>
+  <si>
+    <t>Payroll clearing</t>
+  </si>
+  <si>
+    <t>Current liabilities</t>
+  </si>
+  <si>
+    <t>Payroll liabilities</t>
+  </si>
+  <si>
+    <t>An account used to deposit, record and monitor payrolls. No funds remain once all cheques clear</t>
+  </si>
+  <si>
+    <t>Superannuation - staff</t>
+  </si>
+  <si>
+    <t>Superannuation expenses</t>
+  </si>
+  <si>
+    <t>Superannuation payable</t>
+  </si>
+  <si>
+    <t>The amount of superannuation to be paid business to the superannuation fund(s) of employees</t>
+  </si>
+  <si>
+    <t>PAYG instalments payable</t>
+  </si>
+  <si>
+    <t>Current Liabilities</t>
+  </si>
+  <si>
+    <t>Pay-As-You-Go instalments paid regularly to the ATO</t>
+  </si>
+  <si>
+    <t>PAYG Liability</t>
+  </si>
+  <si>
+    <t>Default Liability</t>
+  </si>
+  <si>
+    <t>ATO Clearing Account</t>
+  </si>
+  <si>
+    <t>BAS Suspense</t>
+  </si>
+  <si>
+    <t>GST Liabilities Payable</t>
+  </si>
+  <si>
+    <t>BAS Payable</t>
+  </si>
+  <si>
+    <t>FBT Liabilities</t>
+  </si>
+  <si>
+    <t>PAYG Instalment Liabilities</t>
+  </si>
+  <si>
+    <t>Luxury Car Tax Liabilities</t>
+  </si>
+  <si>
+    <t>WET Liabilities</t>
+  </si>
+  <si>
+    <t>PAYG Withholdings Payable</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Non-current liabilities</t>
+  </si>
+  <si>
+    <t>Long term borrowings</t>
+  </si>
+  <si>
+    <t>Money borrowed for business purposes</t>
+  </si>
+  <si>
+    <t>Directors Loan</t>
+  </si>
+  <si>
+    <t>Other non-current liabilities</t>
+  </si>
+  <si>
+    <t>Retained Earnings</t>
+  </si>
+  <si>
+    <t>Owner's equity</t>
+  </si>
+  <si>
+    <t>Net earnings not paid out as dividends, but retained by the company to be reinvested</t>
+  </si>
+  <si>
+    <t>Opening balance equity</t>
+  </si>
+  <si>
+    <t>Opening Balance Equity</t>
+  </si>
+  <si>
+    <t>Offsetting entry used when entering account balances in QuickBooks Online</t>
+  </si>
+  <si>
+    <t>Owners drawings</t>
+  </si>
+  <si>
+    <t>Owner's Equity</t>
+  </si>
+  <si>
+    <t>Withdrawals from a company account to pay an owner</t>
+  </si>
+  <si>
+    <t>Uncategorised Income</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Sales of Product Income</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Billable Expense Income</t>
+  </si>
+  <si>
+    <t>Unapplied Cash Payment Income</t>
+  </si>
+  <si>
+    <t>Freight &amp; Delivery - COS</t>
+  </si>
+  <si>
+    <t>Cost of sales</t>
+  </si>
+  <si>
+    <t>Shipping, Freight and Delivery - COS</t>
+  </si>
+  <si>
+    <t>Supplies and materials - COS</t>
+  </si>
+  <si>
+    <t>Uncategorised Expense</t>
+  </si>
+  <si>
+    <t>Other Miscellaneous Service Cost</t>
+  </si>
+  <si>
+    <t>Accounting and bookkeeping</t>
+  </si>
+  <si>
+    <t>Legal and professional fees</t>
+  </si>
+  <si>
+    <t>Professional fees charged to your business by an accountant or bookkeeper</t>
+  </si>
+  <si>
+    <t>Advertising and marketing</t>
+  </si>
+  <si>
+    <t>Advertising/Promotional</t>
+  </si>
+  <si>
+    <t>Fees and charges incurred by your business for advertising the goods and services it sells</t>
+  </si>
+  <si>
+    <t>Bank charges and fees</t>
+  </si>
+  <si>
+    <t>Bank charges</t>
+  </si>
+  <si>
+    <t>Fees charged by your bank for providing its services to your business</t>
+  </si>
+  <si>
+    <t>Gifts and donations</t>
+  </si>
+  <si>
+    <t>Charitable Contributions</t>
+  </si>
+  <si>
+    <t>Money and gifts donated to charity</t>
+  </si>
+  <si>
+    <t>Subscriptions</t>
+  </si>
+  <si>
+    <t>Dues and Subscriptions</t>
+  </si>
+  <si>
+    <t>Subscriptions to publications, professional memberships or products such as cloud software</t>
+  </si>
+  <si>
+    <t>Meals and entertainment</t>
+  </si>
+  <si>
+    <t>Expenses incurred when traveling for business purposes or entertaining a business client</t>
+  </si>
+  <si>
+    <t>Fuel &amp; oils</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Cost of fuels and oils required for operating your business vehicles</t>
+  </si>
+  <si>
+    <t>Registration and insurance</t>
+  </si>
+  <si>
+    <t>Registration and insurance costs for company vehicles</t>
+  </si>
+  <si>
+    <t>Motor vehicle expenses</t>
+  </si>
+  <si>
+    <t>Expenses incurred running company vehicles</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Expenses incurred to insure business assets</t>
+  </si>
+  <si>
+    <t>Office expenses</t>
+  </si>
+  <si>
+    <t>Office/General Administrative Expenses</t>
+  </si>
+  <si>
+    <t>Costs to maintain office space and equipment</t>
+  </si>
+  <si>
+    <t>Postage &amp; shipping</t>
+  </si>
+  <si>
+    <t>Cost of postage and shipping related to your business operations</t>
+  </si>
+  <si>
+    <t>Printing, stationery &amp; supplies</t>
+  </si>
+  <si>
+    <t>Cost of printing, stationery and supplies for office use</t>
+  </si>
+  <si>
+    <t>Repairs and maintenance</t>
+  </si>
+  <si>
+    <t>Repair and maintenance</t>
+  </si>
+  <si>
+    <t>Expenses incurred repairing or maintaining business assets e.g. office equipment</t>
+  </si>
+  <si>
+    <t>Staff amenities</t>
+  </si>
+  <si>
+    <t>Staff refreshments e.g. tea, coffee and biscults</t>
+  </si>
+  <si>
+    <t>Telephone &amp; internet expenses</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Phone calls and internet expenses associated with operating your business</t>
+  </si>
+  <si>
+    <t>Travel expenses</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Expenses incurred when travelling for business</t>
+  </si>
+  <si>
+    <t>Gas and electricity</t>
+  </si>
+  <si>
+    <t>Expenses incurred for utilities such as lighting, powering or heating business premises</t>
+  </si>
+  <si>
+    <t>Interest expense</t>
+  </si>
+  <si>
+    <t>Interest paid</t>
+  </si>
+  <si>
+    <t>Interest payable on borrowings</t>
+  </si>
+  <si>
+    <t>Contractor Expenses (non salary)</t>
+  </si>
+  <si>
+    <t>External services</t>
+  </si>
+  <si>
+    <t>Monies paid to a contractor (not an employee) for work they've completed</t>
+  </si>
+  <si>
+    <t>Salary and wages - staff</t>
+  </si>
+  <si>
+    <t>Payroll Expenses</t>
+  </si>
+  <si>
+    <t>Salaries and wages paid to employees</t>
+  </si>
+  <si>
+    <t>Workcover expenses</t>
+  </si>
+  <si>
+    <t>Workcover is a compulsory and protects employees if injured on the job</t>
+  </si>
+  <si>
+    <t>Shipping, Freight, and Delivery Postage &amp; Handling</t>
+  </si>
+  <si>
+    <t>Shipping, Freight, and Delivery</t>
+  </si>
+  <si>
+    <t>Wages Expense</t>
+  </si>
+  <si>
+    <t>Default account for recorded wages and salaries expenses</t>
+  </si>
+  <si>
+    <t>Superannuation Expense</t>
+  </si>
+  <si>
+    <t>Client Gift</t>
+  </si>
+  <si>
+    <t>Client Birthday</t>
+  </si>
+  <si>
+    <t>Unapplied Cash Bill Payment Expense</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>BAS Expense</t>
+  </si>
+  <si>
+    <t>BAS expense</t>
+  </si>
+  <si>
+    <t>Workers Comp icare</t>
+  </si>
+  <si>
+    <t>Car Insurance</t>
+  </si>
+  <si>
+    <t>Car Insurance NRMA</t>
+  </si>
+  <si>
+    <t>Insurance Income Protection</t>
+  </si>
+  <si>
+    <t>Car Insurance Honda</t>
+  </si>
+  <si>
+    <t>Car Insurance Honda NRMA</t>
+  </si>
+  <si>
+    <t>NDIS Audit</t>
+  </si>
+  <si>
+    <t>Other external services</t>
+  </si>
+  <si>
+    <t>NDIS Registration Audit</t>
+  </si>
+  <si>
+    <t>DJ Expenses</t>
+  </si>
+  <si>
+    <t>DJ Equipment</t>
+  </si>
+  <si>
+    <t>Admin Fee</t>
+  </si>
+  <si>
+    <t>Purchases</t>
+  </si>
+  <si>
+    <t>Supplies and materials</t>
+  </si>
+  <si>
+    <t>Bad Debt</t>
+  </si>
+  <si>
+    <t>Bad debts</t>
+  </si>
+  <si>
+    <t>Interest income</t>
+  </si>
+  <si>
+    <t>Other income</t>
+  </si>
+  <si>
+    <t>Interest earned</t>
+  </si>
+  <si>
+    <t>Interest earned from savings accounts, deposits or other investments</t>
+  </si>
+  <si>
+    <t>Employee Expenses</t>
+  </si>
+  <si>
+    <t>Other expense</t>
+  </si>
+  <si>
+    <t>Other Expense</t>
+  </si>
+  <si>
+    <t>Default account for recorded employee expenses</t>
+  </si>
+  <si>
+    <t>Reconciliation Discrepancies</t>
+  </si>
+  <si>
+    <t>BAS Roundoff Gain or Loss</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -60,18 +928,213 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -220,16 +1283,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -351,59 +1418,1701 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetData/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2442</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>736642.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2453</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-322358.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2454</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>-182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2480</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>112106.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2482</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>64903.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2483</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>48781.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2484</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>301.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2485</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2486</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>395.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2487</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6430.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2488</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1809.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2489</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1">
+        <v>554755.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2490</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2492</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3291.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2493</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="1">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2457</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="1">
+        <v>13674.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2403</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-1287472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2428</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1">
+        <v>86323.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2440</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="1">
+        <v>14227.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2451</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21">
+        <v>501.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2429</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2430</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1329.07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2455</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-24662.74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2476</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1726.57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2477</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1531.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2478</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-5526.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2479</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="1">
+        <v>249876.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2481</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="1">
+        <v>575317.94999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2432</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-2225030.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2433</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="1">
+        <v>97313.81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2436</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-151148.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2437</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2446</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-84231.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2448</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35">
+        <v>-795.47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2461</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2463</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="1">
+        <v>42918.559999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2465</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2466</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2467</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2468</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2469</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2431</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2491</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" s="1">
+        <v>245499.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2404</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2425</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" s="1">
+        <v>33706.089999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2426</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" s="1">
+        <v>30858.65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2401</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2441</v>
+      </c>
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2443</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2449</v>
+      </c>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2458</v>
+      </c>
+      <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2438</v>
+      </c>
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2450</v>
+      </c>
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2402</v>
+      </c>
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2405</v>
+      </c>
+      <c r="B56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2406</v>
+      </c>
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2407</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2408</v>
+      </c>
+      <c r="B59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2409</v>
+      </c>
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2410</v>
+      </c>
+      <c r="B61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2411</v>
+      </c>
+      <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2412</v>
+      </c>
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2413</v>
+      </c>
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2414</v>
+      </c>
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2415</v>
+      </c>
+      <c r="B66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" t="s">
+        <v>127</v>
+      </c>
+      <c r="E66" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2416</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" t="s">
+        <v>127</v>
+      </c>
+      <c r="E67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2417</v>
+      </c>
+      <c r="B68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" t="s">
+        <v>127</v>
+      </c>
+      <c r="E68" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2418</v>
+      </c>
+      <c r="B69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2419</v>
+      </c>
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" t="s">
+        <v>127</v>
+      </c>
+      <c r="E70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2420</v>
+      </c>
+      <c r="B71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2421</v>
+      </c>
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" t="s">
+        <v>142</v>
+      </c>
+      <c r="E72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2422</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" t="s">
+        <v>139</v>
+      </c>
+      <c r="E73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2424</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2427</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" t="s">
+        <v>150</v>
+      </c>
+      <c r="E75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2434</v>
+      </c>
+      <c r="B76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76" t="s">
+        <v>153</v>
+      </c>
+      <c r="E76" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2435</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" t="s">
+        <v>153</v>
+      </c>
+      <c r="E77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2439</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" t="s">
+        <v>158</v>
+      </c>
+      <c r="E78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2444</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" t="s">
+        <v>153</v>
+      </c>
+      <c r="E79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2447</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2452</v>
+      </c>
+      <c r="B81" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81" t="s">
+        <v>115</v>
+      </c>
+      <c r="E81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2456</v>
+      </c>
+      <c r="B82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2459</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" t="s">
+        <v>124</v>
+      </c>
+      <c r="E83" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2464</v>
+      </c>
+      <c r="B84" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2470</v>
+      </c>
+      <c r="B85" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2471</v>
+      </c>
+      <c r="B86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" t="s">
+        <v>124</v>
+      </c>
+      <c r="E86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2472</v>
+      </c>
+      <c r="B87" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" t="s">
+        <v>48</v>
+      </c>
+      <c r="D87" t="s">
+        <v>124</v>
+      </c>
+      <c r="E87" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2473</v>
+      </c>
+      <c r="B88" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2474</v>
+      </c>
+      <c r="B89" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" t="s">
+        <v>175</v>
+      </c>
+      <c r="E89" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2475</v>
+      </c>
+      <c r="B90" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2494</v>
+      </c>
+      <c r="B91" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" t="s">
+        <v>48</v>
+      </c>
+      <c r="D91" t="s">
+        <v>175</v>
+      </c>
+      <c r="E91" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2495</v>
+      </c>
+      <c r="B92" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2496</v>
+      </c>
+      <c r="B93" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" t="s">
+        <v>48</v>
+      </c>
+      <c r="D93" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2423</v>
+      </c>
+      <c r="B94" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94" t="s">
+        <v>185</v>
+      </c>
+      <c r="D94" t="s">
+        <v>186</v>
+      </c>
+      <c r="E94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2445</v>
+      </c>
+      <c r="B95" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95" t="s">
+        <v>190</v>
+      </c>
+      <c r="E95" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2460</v>
+      </c>
+      <c r="B96" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96" t="s">
+        <v>189</v>
+      </c>
+      <c r="D96" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2462</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" t="s">
+        <v>189</v>
+      </c>
+      <c r="D97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>